--- a/data/interim/2024_classified/govba.xlsx
+++ b/data/interim/2024_classified/govba.xlsx
@@ -19430,7 +19430,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
